--- a/test_物件管理/test_契約管理_車室返還物件解約一覧.xlsx
+++ b/test_物件管理/test_契約管理_車室返還物件解約一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -3428,8 +3428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM166"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14472,7 +14472,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
